--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2124.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2124.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.500041233022649</v>
+        <v>0.8702740669250488</v>
       </c>
       <c r="B1">
-        <v>1.731534398063478</v>
+        <v>3.170135259628296</v>
       </c>
       <c r="C1">
-        <v>1.209991994583293</v>
+        <v>2.943016290664673</v>
       </c>
       <c r="D1">
-        <v>1.091020722075605</v>
+        <v>1.671888828277588</v>
       </c>
       <c r="E1">
-        <v>1.104509888728159</v>
+        <v>1.284761428833008</v>
       </c>
     </row>
   </sheetData>
